--- a/datas/apicases.xlsx
+++ b/datas/apicases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="1000" firstSheet="10" activeTab="16"/>
+    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="1000" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="9" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="161">
   <si>
     <t>case_id</t>
   </si>
@@ -200,7 +200,7 @@
  "endTime": "#end_time#",
  "fingerprintChecksums": "",
  "imei": "#IMEI#",
- "password": "6b8452d5",
+ "password": "e6c52e1a",
  "startTime": "#start_time#",
  "userId": "",
  "userType": 1,
@@ -217,7 +217,7 @@
  "endTime": "#end_time#",
  "fingerprintChecksums": "",
  "imei": "#IMEI#",
- "password": "c62f1d1a",
+ "password": "6b8452d5",
  "startTime": "#start_time#",
  "userId": "",
  "userType": 2,
@@ -242,7 +242,7 @@
  "endTime": "#end_time#",
  "fingerprintChecksums": "",
  "imei": "#IMEI#",
- "password": "4df6ed0b",
+ "password": "c62f1d1A",
  "startTime": "#start_time#",
  "userId": "",
  "userType": 3,
@@ -267,7 +267,7 @@
  "endTime": "#end_time#",
  "fingerprintChecksums": "",
  "imei": "#IMEI#",
- "password": "a9b26c43",
+ "password": "5b5e52d5",
  "startTime": "#start_time#",
  "userId": "",
  "userType": 3,
@@ -1074,6 +1074,19 @@
     "userType":3,
     "validCount":9999,
     "cardType":0
+}</t>
+  </si>
+  <si>
+    <t>NB授权-修改临时用户密码-密码</t>
+  </si>
+  <si>
+    <t>/userAuthorize/update</t>
+  </si>
+  <si>
+    <t>{
+ "userId": "#userId#",
+ "usePwId": "#usePwId#",
+ "password": "775858"
 }</t>
   </si>
   <si>
@@ -1529,10 +1542,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1579,23 +1592,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1609,14 +1628,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1638,8 +1681,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1664,59 +1730,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1749,7 +1762,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1767,7 +1816,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1779,91 +1906,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1881,55 +1924,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1969,6 +1982,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2009,21 +2070,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2037,49 +2083,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -2088,133 +2101,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2749,16 +2762,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2839,7 +2852,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>21</v>
@@ -2856,7 +2869,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>18</v>
@@ -2865,7 +2878,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>21</v>
@@ -2882,16 +2895,16 @@
         <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>21</v>
@@ -2908,16 +2921,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -2943,8 +2956,8 @@
   <sheetPr/>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2958,27 +2971,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -2987,7 +3000,7 @@
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:5">
       <c r="A3" s="26" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -2996,7 +3009,7 @@
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:5">
       <c r="A4" s="28" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -3005,7 +3018,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="25" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -3014,15 +3027,15 @@
     </row>
     <row r="7" spans="3:5">
       <c r="C7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="25" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -3031,12 +3044,12 @@
     </row>
     <row r="10" ht="142.5" spans="5:5">
       <c r="E10" s="18" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="25" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -3045,12 +3058,12 @@
     </row>
     <row r="12" ht="85.5" spans="5:5">
       <c r="E12" s="18" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="25" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -3059,37 +3072,37 @@
     </row>
     <row r="14" ht="42.75" spans="5:5">
       <c r="E14" s="18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" ht="28.5" spans="5:5">
       <c r="E15" s="18" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" ht="28.5" spans="5:5">
       <c r="E16" s="18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" ht="28.5" spans="5:5">
       <c r="E17" s="18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" ht="28.5" spans="5:5">
       <c r="E18" s="18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" ht="28.5" spans="5:5">
       <c r="E19" s="18" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -3098,12 +3111,12 @@
     </row>
     <row r="21" ht="213.75" spans="5:5">
       <c r="E21" s="18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -3112,7 +3125,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="25" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -3121,32 +3134,32 @@
     </row>
     <row r="25" ht="28.5" spans="5:5">
       <c r="E25" s="18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" ht="28.5" spans="5:5">
       <c r="E26" s="18" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" ht="28.5" spans="5:5">
       <c r="E27" s="18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" ht="28.5" spans="5:5">
       <c r="E28" s="18" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" ht="28.5" spans="5:5">
       <c r="E29" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" ht="28.5" spans="5:5">
       <c r="E30" s="18" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3220,16 +3233,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>21</v>
@@ -3313,7 +3326,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>21</v>
@@ -3330,7 +3343,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>18</v>
@@ -3339,7 +3352,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>21</v>
@@ -3356,16 +3369,16 @@
         <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>21</v>
@@ -3382,16 +3395,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3408,16 +3421,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>21</v>
@@ -3499,16 +3512,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -3595,7 +3608,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>21</v>
@@ -3612,16 +3625,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>21</v>
@@ -3638,16 +3651,16 @@
         <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>21</v>
@@ -3668,7 +3681,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
@@ -3731,7 +3744,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>21</v>
@@ -3748,16 +3761,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>21</v>
@@ -3832,16 +3845,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>21</v>
@@ -3862,7 +3875,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -3916,16 +3929,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>21</v>
@@ -3946,7 +3959,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="220" customHeight="1" outlineLevelRow="1"/>
@@ -4080,16 +4093,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>21</v>
@@ -4164,19 +4177,19 @@
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -4193,8 +4206,8 @@
   <sheetPr/>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4475,8 +4488,8 @@
   <sheetPr/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4670,8 +4683,8 @@
   <sheetPr/>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A2"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -4926,8 +4939,8 @@
   <sheetPr/>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -5140,13 +5153,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="2" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="23.875" customWidth="1"/>
@@ -5213,7 +5226,33 @@
         <v>21</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="67.5" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5292,7 +5331,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>21</v>
@@ -5309,16 +5348,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>21</v>
@@ -5344,7 +5383,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>21</v>
@@ -5361,16 +5400,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -5387,7 +5426,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>18</v>
@@ -5396,7 +5435,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>21</v>
@@ -5413,16 +5452,16 @@
         <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>21</v>
@@ -5511,7 +5550,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>21</v>
@@ -5526,7 +5565,7 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>18</v>
@@ -5535,7 +5574,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>21</v>
@@ -5552,16 +5591,16 @@
         <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>21</v>

--- a/datas/apicases.xlsx
+++ b/datas/apicases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="1000" firstSheet="12" activeTab="16"/>
+    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="1000" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="9" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="161">
   <si>
     <t>case_id</t>
   </si>
@@ -1063,12 +1063,15 @@
     </r>
   </si>
   <si>
+    <t>NB授权-临时用户新增-密码(用例没有用开发没做)</t>
+  </si>
+  <si>
     <t>{
     "authOperate":1,
     "endTime":"#end_time#",
     "fingerprintChecksums":"",
     "imei":"#IMEI#",
-    "password":"220002",
+    "password":"220004",
     "startTime":"#start_time#",
     "userId":"",
     "userType":3,
@@ -1084,7 +1087,7 @@
   </si>
   <si>
     <t>{
- "userId": "#userId#",
+ "userId":"#userId#",
  "usePwId": "#usePwId#",
  "password": "775858"
 }</t>
@@ -1171,7 +1174,7 @@
     "endTime":"#end_time#",
     "fingerprintChecksums":"",
     "imei":"#IMEI#",
-    "password":"c6373d1a",
+    "password":"a9ea8843",
     "startTime":"#start_time#",
     "userId":"#userId#",
     "userType":3,
@@ -1204,23 +1207,9 @@
     "endTime":"#end_time#",
     "fingerprintChecksums":"",
     "imei":"#IMEI#",
-    "password":"222001",
+    "password":"222005",
     "startTime":"#start_time#",
     "userId":"",
-    "userType":3,
-    "validCount":9999,
-    "cardType":0
-}</t>
-  </si>
-  <si>
-    <t>{
-    "authOperate":3,
-    "endTime":"#end_time#",
-    "fingerprintChecksums":"",
-    "imei":"#IMEI#",
-    "password":"a9ea8843",
-    "startTime":"#start_time#",
-    "userId":"#userId#",
     "userType":3,
     "validCount":9999,
     "cardType":0
@@ -1542,10 +1531,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1598,21 +1587,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -1621,37 +1595,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1665,11 +1609,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1689,16 +1647,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1719,9 +1669,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1732,6 +1697,30 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1762,7 +1751,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1774,55 +1907,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1834,67 +1919,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1906,43 +1931,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1986,6 +1975,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1997,6 +2006,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2024,75 +2072,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="3">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -2104,130 +2093,130 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="10">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2715,7 +2704,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -2762,16 +2751,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -2788,8 +2777,8 @@
   <sheetPr/>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
@@ -2852,7 +2841,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>21</v>
@@ -2869,7 +2858,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>18</v>
@@ -2878,7 +2867,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>21</v>
@@ -2921,16 +2910,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>78</v>
+      <c r="E5" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3262,14 +3251,14 @@
   <sheetPr/>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="3" max="3" width="24.125" customWidth="1"/>
-    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="36.625" customWidth="1"/>
     <col min="6" max="6" width="59.375" customWidth="1"/>
     <col min="7" max="7" width="31.625" customWidth="1"/>
   </cols>
@@ -3343,7 +3332,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>18</v>
@@ -3352,7 +3341,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>21</v>
@@ -3421,16 +3410,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>21</v>
@@ -3680,8 +3669,8 @@
   <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
@@ -4186,7 +4175,7 @@
         <v>159</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>160</v>
@@ -5156,7 +5145,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
@@ -5211,7 +5200,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>18</v>
@@ -5220,7 +5209,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -5237,16 +5226,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -5266,8 +5255,8 @@
   <sheetPr/>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -5331,7 +5320,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>21</v>
@@ -5348,16 +5337,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>78</v>
+      <c r="E3" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>21</v>
@@ -5383,7 +5372,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>21</v>
@@ -5400,16 +5389,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>78</v>
+      <c r="E5" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -5426,7 +5415,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>18</v>
@@ -5435,7 +5424,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>21</v>
@@ -5452,16 +5441,16 @@
         <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>78</v>
+      <c r="E7" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>21</v>
@@ -5486,13 +5475,13 @@
   <sheetPr/>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="32.875" customWidth="1"/>
     <col min="5" max="5" width="21.75" customWidth="1"/>
     <col min="6" max="6" width="59.375" customWidth="1"/>
     <col min="7" max="7" width="31.625" customWidth="1"/>
@@ -5550,7 +5539,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>21</v>
@@ -5563,9 +5552,11 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>18</v>
@@ -5574,7 +5565,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>21</v>
@@ -5591,16 +5582,16 @@
         <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>78</v>
+      <c r="E4" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>21</v>
